--- a/pic/multicnnc2cm_15min_zscore_shuffle_ROC1/multicnnc2cm_15min_zscore_shuffle_ROC1.xlsx
+++ b/pic/multicnnc2cm_15min_zscore_shuffle_ROC1/multicnnc2cm_15min_zscore_shuffle_ROC1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\future\复旦\信息学院\课题组\narcolepsy_night\narcolepsy_night_code\pic\multicnnc2cm_15min_zscore_shuffle_ROC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a996cea29e9e70/future/复旦/信息学院/课题组/narcolepsy_night/narcolepsy_night_code/pic/multicnnc2cm_15min_zscore_shuffle_ROC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98DDFA1-3CAA-454F-925B-351017CFDDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A98DDFA1-3CAA-454F-925B-351017CFDDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970D4875-E093-485C-B633-E02316FDE3A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{E4D9FF88-E522-4310-8C3A-733503710725}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E4D9FF88-E522-4310-8C3A-733503710725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,11 +408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD82F98-065E-47D2-B187-FB6B9CD9EF8F}">
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -8486,6 +8486,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color theme="8"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17544,7 +17556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440BB8FE-60AB-4A98-96AF-099F67C3AF7C}">
   <dimension ref="A1:BZ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
